--- a/biology/Botanique/Hémicryptophyte/Hémicryptophyte.xlsx
+++ b/biology/Botanique/Hémicryptophyte/Hémicryptophyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9micryptophyte</t>
+          <t>Hémicryptophyte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">D’après les types biologiques du danois Christen Christiansen Raunkiær, établis en 1934, on appelle hémicryptophytes les plantes vivaces dont les bourgeons persistant durant la mauvaise saison sont situés au niveau du sol. En d'autres termes, leurs parties aériennes meurent entièrement durant la mauvaise saison. Ordinairement, il s'agit de plantes herbacées comme Helminthotheca echioides, Senecio sarracenicus, Angelica archangelica, les primevères…
 On subdivise les hémicryptophytes en trois catégories en fonction, cette fois, de leur apparence à la belle saison :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9micryptophyte</t>
+          <t>Hémicryptophyte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien hémi (« demi »), cryptos (« caché ») et phuton (« plante, végétal ») ; lors de la mauvaise saison, les parties vivantes de la plante sont semi-cachées (parties souterraines et bourgeons au ras du sol), alors que les parties aériennes se dessèchent et disparaissent.
 </t>
